--- a/INTLINE/data/548/BNM/Federal Government Operating Expenditure by ObjectQ_historical.xlsx
+++ b/INTLINE/data/548/BNM/Federal Government Operating Expenditure by ObjectQ_historical.xlsx
@@ -1,37 +1,330 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Federal Government Operating E" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Federal Government Operating E" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="95">
+  <si>
+    <t>1999-Q1</t>
+  </si>
+  <si>
+    <t>1999-Q2</t>
+  </si>
+  <si>
+    <t>1999-Q3</t>
+  </si>
+  <si>
+    <t>1999-Q4</t>
+  </si>
+  <si>
+    <t>2000-Q1</t>
+  </si>
+  <si>
+    <t>2000-Q2</t>
+  </si>
+  <si>
+    <t>2000-Q3</t>
+  </si>
+  <si>
+    <t>2000-Q4</t>
+  </si>
+  <si>
+    <t>2001-Q1</t>
+  </si>
+  <si>
+    <t>2001-Q2</t>
+  </si>
+  <si>
+    <t>2001-Q3</t>
+  </si>
+  <si>
+    <t>2001-Q4</t>
+  </si>
+  <si>
+    <t>2002-Q1</t>
+  </si>
+  <si>
+    <t>2002-Q2</t>
+  </si>
+  <si>
+    <t>2002-Q3</t>
+  </si>
+  <si>
+    <t>2002-Q4</t>
+  </si>
+  <si>
+    <t>2003-Q1</t>
+  </si>
+  <si>
+    <t>2003-Q2</t>
+  </si>
+  <si>
+    <t>2003-Q3</t>
+  </si>
+  <si>
+    <t>2003-Q4</t>
+  </si>
+  <si>
+    <t>2004-Q1</t>
+  </si>
+  <si>
+    <t>2004-Q2</t>
+  </si>
+  <si>
+    <t>2004-Q3</t>
+  </si>
+  <si>
+    <t>2004-Q4</t>
+  </si>
+  <si>
+    <t>2005-Q1</t>
+  </si>
+  <si>
+    <t>2005-Q2</t>
+  </si>
+  <si>
+    <t>2005-Q3</t>
+  </si>
+  <si>
+    <t>2005-Q4</t>
+  </si>
+  <si>
+    <t>2006-Q1</t>
+  </si>
+  <si>
+    <t>2006-Q2</t>
+  </si>
+  <si>
+    <t>2006-Q3</t>
+  </si>
+  <si>
+    <t>2006-Q4</t>
+  </si>
+  <si>
+    <t>2007-Q1</t>
+  </si>
+  <si>
+    <t>2007-Q2</t>
+  </si>
+  <si>
+    <t>2007-Q3</t>
+  </si>
+  <si>
+    <t>2007-Q4</t>
+  </si>
+  <si>
+    <t>2008-Q1</t>
+  </si>
+  <si>
+    <t>2008-Q2</t>
+  </si>
+  <si>
+    <t>2008-Q3</t>
+  </si>
+  <si>
+    <t>2008-Q4</t>
+  </si>
+  <si>
+    <t>2009-Q1</t>
+  </si>
+  <si>
+    <t>2009-Q2</t>
+  </si>
+  <si>
+    <t>2009-Q3</t>
+  </si>
+  <si>
+    <t>2009-Q4</t>
+  </si>
+  <si>
+    <t>2010-Q1</t>
+  </si>
+  <si>
+    <t>2010-Q2</t>
+  </si>
+  <si>
+    <t>2010-Q3</t>
+  </si>
+  <si>
+    <t>2010-Q4</t>
+  </si>
+  <si>
+    <t>2011-Q1</t>
+  </si>
+  <si>
+    <t>2011-Q2</t>
+  </si>
+  <si>
+    <t>2011-Q3</t>
+  </si>
+  <si>
+    <t>2011-Q4</t>
+  </si>
+  <si>
+    <t>2012-Q1</t>
+  </si>
+  <si>
+    <t>2012-Q2</t>
+  </si>
+  <si>
+    <t>2012-Q3</t>
+  </si>
+  <si>
+    <t>2012-Q4</t>
+  </si>
+  <si>
+    <t>2013-Q1</t>
+  </si>
+  <si>
+    <t>2013-Q2</t>
+  </si>
+  <si>
+    <t>2013-Q3</t>
+  </si>
+  <si>
+    <t>2013-Q4</t>
+  </si>
+  <si>
+    <t>2014-Q1</t>
+  </si>
+  <si>
+    <t>2014-Q2</t>
+  </si>
+  <si>
+    <t>2014-Q3</t>
+  </si>
+  <si>
+    <t>2014-Q4</t>
+  </si>
+  <si>
+    <t>2015-Q1</t>
+  </si>
+  <si>
+    <t>2015-Q2</t>
+  </si>
+  <si>
+    <t>2015-Q3</t>
+  </si>
+  <si>
+    <t>2015-Q4</t>
+  </si>
+  <si>
+    <t>2016-Q1</t>
+  </si>
+  <si>
+    <t>2016-Q2</t>
+  </si>
+  <si>
+    <t>2016-Q3</t>
+  </si>
+  <si>
+    <t>2016-Q4</t>
+  </si>
+  <si>
+    <t>2017-Q1</t>
+  </si>
+  <si>
+    <t>2017-Q2</t>
+  </si>
+  <si>
+    <t>2017-Q3</t>
+  </si>
+  <si>
+    <t>2017-Q4</t>
+  </si>
+  <si>
+    <t>2018-Q1</t>
+  </si>
+  <si>
+    <t>2018-Q2</t>
+  </si>
+  <si>
+    <t>2018-Q3</t>
+  </si>
+  <si>
+    <t>2018-Q4</t>
+  </si>
+  <si>
+    <t>2019-Q1</t>
+  </si>
+  <si>
+    <t>2019-Q2</t>
+  </si>
+  <si>
+    <t>2019-Q3</t>
+  </si>
+  <si>
+    <t>2019-Q4</t>
+  </si>
+  <si>
+    <t>2020-Q1</t>
+  </si>
+  <si>
+    <t>2020-Q2</t>
+  </si>
+  <si>
+    <t>2020-Q3</t>
+  </si>
+  <si>
+    <t>2020-Q4</t>
+  </si>
+  <si>
+    <t>2021-Q1</t>
+  </si>
+  <si>
+    <t>2021-Q2</t>
+  </si>
+  <si>
+    <t>2021-Q3</t>
+  </si>
+  <si>
+    <t>2021-Q4</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>Domestic</t>
+  </si>
+  <si>
+    <t>External</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
   <fonts count="2">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,10 +339,18 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -57,14 +358,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
@@ -353,1331 +655,1135 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:CO4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>1999-Q1</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>1999-Q2</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>1999-Q3</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>1999-Q4</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>2000-Q1</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>2000-Q2</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>2000-Q3</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>2000-Q4</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>2001-Q1</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>2001-Q2</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>2001-Q3</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>2001-Q4</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>2002-Q1</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>2002-Q2</t>
-        </is>
-      </c>
-      <c r="P1" s="1" t="inlineStr">
-        <is>
-          <t>2002-Q3</t>
-        </is>
-      </c>
-      <c r="Q1" s="1" t="inlineStr">
-        <is>
-          <t>2002-Q4</t>
-        </is>
-      </c>
-      <c r="R1" s="1" t="inlineStr">
-        <is>
-          <t>2003-Q1</t>
-        </is>
-      </c>
-      <c r="S1" s="1" t="inlineStr">
-        <is>
-          <t>2003-Q2</t>
-        </is>
-      </c>
-      <c r="T1" s="1" t="inlineStr">
-        <is>
-          <t>2003-Q3</t>
-        </is>
-      </c>
-      <c r="U1" s="1" t="inlineStr">
-        <is>
-          <t>2003-Q4</t>
-        </is>
-      </c>
-      <c r="V1" s="1" t="inlineStr">
-        <is>
-          <t>2004-Q1</t>
-        </is>
-      </c>
-      <c r="W1" s="1" t="inlineStr">
-        <is>
-          <t>2004-Q2</t>
-        </is>
-      </c>
-      <c r="X1" s="1" t="inlineStr">
-        <is>
-          <t>2004-Q3</t>
-        </is>
-      </c>
-      <c r="Y1" s="1" t="inlineStr">
-        <is>
-          <t>2004-Q4</t>
-        </is>
-      </c>
-      <c r="Z1" s="1" t="inlineStr">
-        <is>
-          <t>2005-Q1</t>
-        </is>
-      </c>
-      <c r="AA1" s="1" t="inlineStr">
-        <is>
-          <t>2005-Q2</t>
-        </is>
-      </c>
-      <c r="AB1" s="1" t="inlineStr">
-        <is>
-          <t>2005-Q3</t>
-        </is>
-      </c>
-      <c r="AC1" s="1" t="inlineStr">
-        <is>
-          <t>2005-Q4</t>
-        </is>
-      </c>
-      <c r="AD1" s="1" t="inlineStr">
-        <is>
-          <t>2006-Q1</t>
-        </is>
-      </c>
-      <c r="AE1" s="1" t="inlineStr">
-        <is>
-          <t>2006-Q2</t>
-        </is>
-      </c>
-      <c r="AF1" s="1" t="inlineStr">
-        <is>
-          <t>2006-Q3</t>
-        </is>
-      </c>
-      <c r="AG1" s="1" t="inlineStr">
-        <is>
-          <t>2006-Q4</t>
-        </is>
-      </c>
-      <c r="AH1" s="1" t="inlineStr">
-        <is>
-          <t>2007-Q1</t>
-        </is>
-      </c>
-      <c r="AI1" s="1" t="inlineStr">
-        <is>
-          <t>2007-Q2</t>
-        </is>
-      </c>
-      <c r="AJ1" s="1" t="inlineStr">
-        <is>
-          <t>2007-Q3</t>
-        </is>
-      </c>
-      <c r="AK1" s="1" t="inlineStr">
-        <is>
-          <t>2007-Q4</t>
-        </is>
-      </c>
-      <c r="AL1" s="1" t="inlineStr">
-        <is>
-          <t>2008-Q1</t>
-        </is>
-      </c>
-      <c r="AM1" s="1" t="inlineStr">
-        <is>
-          <t>2008-Q2</t>
-        </is>
-      </c>
-      <c r="AN1" s="1" t="inlineStr">
-        <is>
-          <t>2008-Q3</t>
-        </is>
-      </c>
-      <c r="AO1" s="1" t="inlineStr">
-        <is>
-          <t>2008-Q4</t>
-        </is>
-      </c>
-      <c r="AP1" s="1" t="inlineStr">
-        <is>
-          <t>2009-Q1</t>
-        </is>
-      </c>
-      <c r="AQ1" s="1" t="inlineStr">
-        <is>
-          <t>2009-Q2</t>
-        </is>
-      </c>
-      <c r="AR1" s="1" t="inlineStr">
-        <is>
-          <t>2009-Q3</t>
-        </is>
-      </c>
-      <c r="AS1" s="1" t="inlineStr">
-        <is>
-          <t>2009-Q4</t>
-        </is>
-      </c>
-      <c r="AT1" s="1" t="inlineStr">
-        <is>
-          <t>2010-Q1</t>
-        </is>
-      </c>
-      <c r="AU1" s="1" t="inlineStr">
-        <is>
-          <t>2010-Q2</t>
-        </is>
-      </c>
-      <c r="AV1" s="1" t="inlineStr">
-        <is>
-          <t>2010-Q3</t>
-        </is>
-      </c>
-      <c r="AW1" s="1" t="inlineStr">
-        <is>
-          <t>2010-Q4</t>
-        </is>
-      </c>
-      <c r="AX1" s="1" t="inlineStr">
-        <is>
-          <t>2011-Q1</t>
-        </is>
-      </c>
-      <c r="AY1" s="1" t="inlineStr">
-        <is>
-          <t>2011-Q2</t>
-        </is>
-      </c>
-      <c r="AZ1" s="1" t="inlineStr">
-        <is>
-          <t>2011-Q3</t>
-        </is>
-      </c>
-      <c r="BA1" s="1" t="inlineStr">
-        <is>
-          <t>2011-Q4</t>
-        </is>
-      </c>
-      <c r="BB1" s="1" t="inlineStr">
-        <is>
-          <t>2012-Q1</t>
-        </is>
-      </c>
-      <c r="BC1" s="1" t="inlineStr">
-        <is>
-          <t>2012-Q2</t>
-        </is>
-      </c>
-      <c r="BD1" s="1" t="inlineStr">
-        <is>
-          <t>2012-Q3</t>
-        </is>
-      </c>
-      <c r="BE1" s="1" t="inlineStr">
-        <is>
-          <t>2012-Q4</t>
-        </is>
-      </c>
-      <c r="BF1" s="1" t="inlineStr">
-        <is>
-          <t>2013-Q1</t>
-        </is>
-      </c>
-      <c r="BG1" s="1" t="inlineStr">
-        <is>
-          <t>2013-Q2</t>
-        </is>
-      </c>
-      <c r="BH1" s="1" t="inlineStr">
-        <is>
-          <t>2013-Q3</t>
-        </is>
-      </c>
-      <c r="BI1" s="1" t="inlineStr">
-        <is>
-          <t>2013-Q4</t>
-        </is>
-      </c>
-      <c r="BJ1" s="1" t="inlineStr">
-        <is>
-          <t>2014-Q1</t>
-        </is>
-      </c>
-      <c r="BK1" s="1" t="inlineStr">
-        <is>
-          <t>2014-Q2</t>
-        </is>
-      </c>
-      <c r="BL1" s="1" t="inlineStr">
-        <is>
-          <t>2014-Q3</t>
-        </is>
-      </c>
-      <c r="BM1" s="1" t="inlineStr">
-        <is>
-          <t>2014-Q4</t>
-        </is>
-      </c>
-      <c r="BN1" s="1" t="inlineStr">
-        <is>
-          <t>2015-Q1</t>
-        </is>
-      </c>
-      <c r="BO1" s="1" t="inlineStr">
-        <is>
-          <t>2015-Q2</t>
-        </is>
-      </c>
-      <c r="BP1" s="1" t="inlineStr">
-        <is>
-          <t>2015-Q3</t>
-        </is>
-      </c>
-      <c r="BQ1" s="1" t="inlineStr">
-        <is>
-          <t>2015-Q4</t>
-        </is>
-      </c>
-      <c r="BR1" s="1" t="inlineStr">
-        <is>
-          <t>2016-Q1</t>
-        </is>
-      </c>
-      <c r="BS1" s="1" t="inlineStr">
-        <is>
-          <t>2016-Q2</t>
-        </is>
-      </c>
-      <c r="BT1" s="1" t="inlineStr">
-        <is>
-          <t>2016-Q3</t>
-        </is>
-      </c>
-      <c r="BU1" s="1" t="inlineStr">
-        <is>
-          <t>2016-Q4</t>
-        </is>
-      </c>
-      <c r="BV1" s="1" t="inlineStr">
-        <is>
-          <t>2017-Q1</t>
-        </is>
-      </c>
-      <c r="BW1" s="1" t="inlineStr">
-        <is>
-          <t>2017-Q2</t>
-        </is>
-      </c>
-      <c r="BX1" s="1" t="inlineStr">
-        <is>
-          <t>2017-Q3</t>
-        </is>
-      </c>
-      <c r="BY1" s="1" t="inlineStr">
-        <is>
-          <t>2017-Q4</t>
-        </is>
-      </c>
-      <c r="BZ1" s="1" t="inlineStr">
-        <is>
-          <t>2018-Q1</t>
-        </is>
-      </c>
-      <c r="CA1" s="1" t="inlineStr">
-        <is>
-          <t>2018-Q2</t>
-        </is>
-      </c>
-      <c r="CB1" s="1" t="inlineStr">
-        <is>
-          <t>2018-Q3</t>
-        </is>
-      </c>
-      <c r="CC1" s="1" t="inlineStr">
-        <is>
-          <t>2018-Q4</t>
-        </is>
-      </c>
-      <c r="CD1" s="1" t="inlineStr">
-        <is>
-          <t>2019-Q1</t>
-        </is>
-      </c>
-      <c r="CE1" s="1" t="inlineStr">
-        <is>
-          <t>2019-Q2</t>
-        </is>
-      </c>
-      <c r="CF1" s="1" t="inlineStr">
-        <is>
-          <t>2019-Q3</t>
-        </is>
-      </c>
-      <c r="CG1" s="1" t="inlineStr">
-        <is>
-          <t>2019-Q4</t>
-        </is>
-      </c>
-      <c r="CH1" s="1" t="inlineStr">
-        <is>
-          <t>2020-Q1</t>
-        </is>
-      </c>
-      <c r="CI1" s="1" t="inlineStr">
-        <is>
-          <t>2020-Q2</t>
-        </is>
-      </c>
-      <c r="CJ1" s="1" t="inlineStr">
-        <is>
-          <t>2020-Q3</t>
-        </is>
-      </c>
-      <c r="CK1" s="1" t="inlineStr">
-        <is>
-          <t>2020-Q4</t>
-        </is>
-      </c>
-      <c r="CL1" s="1" t="inlineStr">
-        <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="CM1" s="1" t="inlineStr">
-        <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="CN1" s="1" t="inlineStr">
-        <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="CO1" s="1" t="inlineStr">
-        <is>
-          <t>2021-Q4</t>
-        </is>
+    <row r="1" spans="1:93">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AO1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AP1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AQ1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AR1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AS1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AT1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AU1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AV1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AW1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AX1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AY1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AZ1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="BA1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BB1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="BC1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="BD1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="BE1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="BF1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="BG1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="BH1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="BI1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BJ1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="BK1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="BL1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="BM1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="BN1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="BO1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="BP1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="BQ1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="BR1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="BS1" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="BT1" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="BU1" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="BV1" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BW1" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BX1" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BY1" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BZ1" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="CA1" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="CB1" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="CC1" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="CD1" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="CE1" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="CF1" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="CG1" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="CH1" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="CI1" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="CJ1" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="CK1" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="CL1" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="CM1" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="CN1" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="CO1" s="1" t="s">
+        <v>91</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
+    <row r="2" spans="1:93">
+      <c r="A2" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B2">
         <v>1100</v>
       </c>
-      <c r="C2" t="n">
+      <c r="C2">
         <v>2105</v>
       </c>
-      <c r="D2" t="n">
+      <c r="D2">
         <v>1630</v>
       </c>
-      <c r="E2" t="n">
+      <c r="E2">
         <v>3106</v>
       </c>
-      <c r="F2" t="n">
+      <c r="F2">
         <v>799</v>
       </c>
-      <c r="G2" t="n">
+      <c r="G2">
         <v>2730</v>
       </c>
-      <c r="H2" t="n">
+      <c r="H2">
         <v>2069</v>
       </c>
-      <c r="I2" t="n">
+      <c r="I2">
         <v>3457</v>
       </c>
-      <c r="J2" t="n">
+      <c r="J2">
         <v>1213</v>
       </c>
-      <c r="K2" t="n">
+      <c r="K2">
         <v>2690</v>
       </c>
-      <c r="L2" t="n">
+      <c r="L2">
         <v>1860</v>
       </c>
-      <c r="M2" t="n">
+      <c r="M2">
         <v>3871</v>
       </c>
-      <c r="N2" t="n">
+      <c r="N2">
         <v>2699</v>
       </c>
-      <c r="O2" t="n">
+      <c r="O2">
         <v>3053</v>
       </c>
-      <c r="P2" t="n">
+      <c r="P2">
         <v>1905</v>
       </c>
-      <c r="Q2" t="n">
+      <c r="Q2">
         <v>2012</v>
       </c>
-      <c r="R2" t="n">
+      <c r="R2">
         <v>1377</v>
       </c>
-      <c r="S2" t="n">
+      <c r="S2">
         <v>3516</v>
       </c>
-      <c r="T2" t="n">
+      <c r="T2">
         <v>2443</v>
       </c>
-      <c r="U2" t="n">
+      <c r="U2">
         <v>3210</v>
       </c>
-      <c r="V2" t="n">
+      <c r="V2">
         <v>1867</v>
       </c>
-      <c r="W2" t="n">
+      <c r="W2">
         <v>3198</v>
       </c>
-      <c r="X2" t="n">
+      <c r="X2">
         <v>2410</v>
       </c>
-      <c r="Y2" t="n">
+      <c r="Y2">
         <v>3444</v>
       </c>
-      <c r="Z2" t="n">
+      <c r="Z2">
         <v>2587</v>
       </c>
-      <c r="AA2" t="n">
+      <c r="AA2">
         <v>3024</v>
       </c>
-      <c r="AB2" t="n">
+      <c r="AB2">
         <v>2927</v>
       </c>
-      <c r="AC2" t="n">
+      <c r="AC2">
         <v>3067</v>
       </c>
-      <c r="AD2" t="n">
+      <c r="AD2">
         <v>3227.92525241</v>
       </c>
-      <c r="AE2" t="n">
+      <c r="AE2">
         <v>2740.397791</v>
       </c>
-      <c r="AF2" t="n">
+      <c r="AF2">
         <v>3243.55622924</v>
       </c>
-      <c r="AG2" t="n">
+      <c r="AG2">
         <v>3283.535499999998</v>
       </c>
-      <c r="AH2" t="n">
+      <c r="AH2">
         <v>3067.31347115</v>
       </c>
-      <c r="AI2" t="n">
+      <c r="AI2">
         <v>3035.565517849999</v>
       </c>
-      <c r="AJ2" t="n">
+      <c r="AJ2">
         <v>3040.003281650001</v>
       </c>
-      <c r="AK2" t="n">
+      <c r="AK2">
         <v>3767.94672575</v>
       </c>
-      <c r="AL2" t="n">
+      <c r="AL2">
         <v>3364.721540280001</v>
       </c>
-      <c r="AM2" t="n">
+      <c r="AM2">
         <v>2615.449812850001</v>
       </c>
-      <c r="AN2" t="n">
+      <c r="AN2">
         <v>3646.42951314</v>
       </c>
-      <c r="AO2" t="n">
+      <c r="AO2">
         <v>3170.217033259998</v>
       </c>
-      <c r="AP2" t="n">
+      <c r="AP2">
         <v>3598.29332133</v>
       </c>
-      <c r="AQ2" t="n">
+      <c r="AQ2">
         <v>3157.315674699999</v>
       </c>
-      <c r="AR2" t="n">
+      <c r="AR2">
         <v>3580.60413018</v>
       </c>
-      <c r="AS2" t="n">
+      <c r="AS2">
         <v>3885.293867260003</v>
       </c>
-      <c r="AT2" t="n">
+      <c r="AT2">
         <v>3296.96583552</v>
       </c>
-      <c r="AU2" t="n">
+      <c r="AU2">
         <v>3110.883827429999</v>
       </c>
-      <c r="AV2" t="n">
+      <c r="AV2">
         <v>5245.483614920001</v>
       </c>
-      <c r="AW2" t="n">
+      <c r="AW2">
         <v>3967.749331129999</v>
       </c>
-      <c r="AX2" t="n">
+      <c r="AX2">
         <v>4492.899122899999</v>
       </c>
-      <c r="AY2" t="n">
+      <c r="AY2">
         <v>3408.52618512</v>
       </c>
-      <c r="AZ2" t="n">
+      <c r="AZ2">
         <v>5278.761599829999</v>
       </c>
-      <c r="BA2" t="n">
+      <c r="BA2">
         <v>4535.743157140001</v>
       </c>
-      <c r="BB2" t="n">
+      <c r="BB2">
         <v>4658.66959037</v>
       </c>
-      <c r="BC2" t="n">
+      <c r="BC2">
         <v>4450.065513310001</v>
       </c>
-      <c r="BD2" t="n">
+      <c r="BD2">
         <v>5116.96684795</v>
       </c>
-      <c r="BE2" t="n">
+      <c r="BE2">
         <v>5311.683647620001</v>
       </c>
-      <c r="BF2" t="n">
+      <c r="BF2">
         <v>4539.100545199999</v>
       </c>
-      <c r="BG2" t="n">
+      <c r="BG2">
         <v>5298.81253015</v>
       </c>
-      <c r="BH2" t="n">
+      <c r="BH2">
         <v>5953.838867619999</v>
       </c>
-      <c r="BI2" t="n">
+      <c r="BI2">
         <v>4983.862563860003</v>
       </c>
-      <c r="BJ2" t="n">
+      <c r="BJ2">
         <v>6222.18657488</v>
       </c>
-      <c r="BK2" t="n">
+      <c r="BK2">
         <v>4580.231268879999</v>
       </c>
-      <c r="BL2" t="n">
+      <c r="BL2">
         <v>6760.532894030001</v>
       </c>
-      <c r="BM2" t="n">
+      <c r="BM2">
         <v>5025.27297666</v>
       </c>
-      <c r="BN2" t="n">
+      <c r="BN2">
         <v>5817</v>
       </c>
-      <c r="BO2" t="n">
+      <c r="BO2">
         <v>5690</v>
       </c>
-      <c r="BP2" t="n">
+      <c r="BP2">
         <v>7119</v>
       </c>
-      <c r="BQ2" t="n">
+      <c r="BQ2">
         <v>5657</v>
       </c>
-      <c r="BR2" t="n">
+      <c r="BR2">
         <v>6869.58559851</v>
       </c>
-      <c r="BS2" t="n">
+      <c r="BS2">
         <v>5669.360357340001</v>
       </c>
-      <c r="BT2" t="n">
+      <c r="BT2">
         <v>7588.70863674</v>
       </c>
-      <c r="BU2" t="n">
+      <c r="BU2">
         <v>6351.867206600005</v>
       </c>
-      <c r="BV2" t="n">
+      <c r="BV2">
         <v>7198.636583889999</v>
       </c>
-      <c r="BW2" t="n">
+      <c r="BW2">
         <v>6261.952252700002</v>
       </c>
-      <c r="BX2" t="n">
+      <c r="BX2">
         <v>6083.503139279999</v>
       </c>
-      <c r="BY2" t="n">
+      <c r="BY2">
         <v>8319.11726804</v>
       </c>
-      <c r="BZ2" t="n">
+      <c r="BZ2">
         <v>6003.638599079999</v>
       </c>
-      <c r="CA2" t="n">
+      <c r="CA2">
         <v>8622.915085390001</v>
       </c>
-      <c r="CB2" t="n">
+      <c r="CB2">
         <v>6309.500315529995</v>
       </c>
-      <c r="CC2" t="n">
+      <c r="CC2">
         <v>9610.957000000002</v>
       </c>
-      <c r="CD2" t="n">
+      <c r="CD2">
         <v>6106.60747277</v>
       </c>
-      <c r="CE2" t="n">
+      <c r="CE2">
         <v>9518.645935750001</v>
       </c>
-      <c r="CF2" t="n">
+      <c r="CF2">
         <v>8675.155443539998</v>
       </c>
-      <c r="CG2" t="n">
+      <c r="CG2">
         <v>8632.26932612</v>
       </c>
-      <c r="CH2" t="n">
+      <c r="CH2">
         <v>8620.895154529999</v>
       </c>
-      <c r="CI2" t="n">
+      <c r="CI2">
         <v>8188.907955380001</v>
       </c>
-      <c r="CJ2" t="n">
+      <c r="CJ2">
         <v>9100.387025239999</v>
       </c>
-      <c r="CK2" t="n">
+      <c r="CK2">
         <v>8584.612225829997</v>
       </c>
-      <c r="CL2" t="n">
+      <c r="CL2">
         <v>9261.626530220003</v>
       </c>
-      <c r="CM2" t="n">
+      <c r="CM2">
         <v>9132.876188369995</v>
       </c>
-      <c r="CN2" t="n">
+      <c r="CN2">
         <v>9495.399785060003</v>
       </c>
-      <c r="CO2" t="n">
+      <c r="CO2">
         <v>10179.16436595</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="1" t="inlineStr">
-        <is>
-          <t>Domestic</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
+    <row r="3" spans="1:93">
+      <c r="A3" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B3">
         <v>1060</v>
       </c>
-      <c r="C3" t="n">
+      <c r="C3">
         <v>1926</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D3">
         <v>1358</v>
       </c>
-      <c r="E3" t="n">
+      <c r="E3">
         <v>2713</v>
       </c>
-      <c r="F3" t="n">
+      <c r="F3">
         <v>670</v>
       </c>
-      <c r="G3" t="n">
+      <c r="G3">
         <v>2333</v>
       </c>
-      <c r="H3" t="n">
+      <c r="H3">
         <v>1951</v>
       </c>
-      <c r="I3" t="n">
+      <c r="I3">
         <v>2914</v>
       </c>
-      <c r="J3" t="n">
+      <c r="J3">
         <v>1104</v>
       </c>
-      <c r="K3" t="n">
+      <c r="K3">
         <v>2327</v>
       </c>
-      <c r="L3" t="n">
+      <c r="L3">
         <v>1740</v>
       </c>
-      <c r="M3" t="n">
+      <c r="M3">
         <v>3313</v>
       </c>
-      <c r="N3" t="n">
+      <c r="N3">
         <v>2435</v>
       </c>
-      <c r="O3" t="n">
+      <c r="O3">
         <v>2694</v>
       </c>
-      <c r="P3" t="n">
+      <c r="P3">
         <v>1550</v>
       </c>
-      <c r="Q3" t="n">
+      <c r="Q3">
         <v>1298</v>
       </c>
-      <c r="R3" t="n">
+      <c r="R3">
         <v>963</v>
       </c>
-      <c r="S3" t="n">
+      <c r="S3">
         <v>3092</v>
       </c>
-      <c r="T3" t="n">
+      <c r="T3">
         <v>2043</v>
       </c>
-      <c r="U3" t="n">
+      <c r="U3">
         <v>2565</v>
       </c>
-      <c r="V3" t="n">
+      <c r="V3">
         <v>1508</v>
       </c>
-      <c r="W3" t="n">
+      <c r="W3">
         <v>2807</v>
       </c>
-      <c r="X3" t="n">
+      <c r="X3">
         <v>2006</v>
       </c>
-      <c r="Y3" t="n">
+      <c r="Y3">
         <v>2840</v>
       </c>
-      <c r="Z3" t="n">
+      <c r="Z3">
         <v>2186</v>
       </c>
-      <c r="AA3" t="n">
+      <c r="AA3">
         <v>2668</v>
       </c>
-      <c r="AB3" t="n">
+      <c r="AB3">
         <v>2526</v>
       </c>
-      <c r="AC3" t="n">
+      <c r="AC3">
         <v>2494</v>
       </c>
-      <c r="AD3" t="n">
+      <c r="AD3">
         <v>2833</v>
       </c>
-      <c r="AE3" t="n">
+      <c r="AE3">
         <v>2387</v>
       </c>
-      <c r="AF3" t="n">
+      <c r="AF3">
         <v>2868</v>
       </c>
-      <c r="AG3" t="n">
+      <c r="AG3">
         <v>2902</v>
       </c>
-      <c r="AH3" t="n">
+      <c r="AH3">
         <v>2679.2</v>
       </c>
-      <c r="AI3" t="n">
+      <c r="AI3">
         <v>2708.993458529999</v>
       </c>
-      <c r="AJ3" t="n">
+      <c r="AJ3">
         <v>2667.665270820001</v>
       </c>
-      <c r="AK3" t="n">
+      <c r="AK3">
         <v>3429.163126329999</v>
       </c>
-      <c r="AL3" t="n">
+      <c r="AL3">
         <v>3076.532810780001</v>
       </c>
-      <c r="AM3" t="n">
+      <c r="AM3">
         <v>2345.937421900001</v>
       </c>
-      <c r="AN3" t="n">
+      <c r="AN3">
         <v>3361.534369980001</v>
       </c>
-      <c r="AO3" t="n">
+      <c r="AO3">
         <v>2858.100591259998</v>
       </c>
-      <c r="AP3" t="n">
+      <c r="AP3">
         <v>3298.6962853</v>
       </c>
-      <c r="AQ3" t="n">
+      <c r="AQ3">
         <v>2882.955935359999</v>
       </c>
-      <c r="AR3" t="n">
+      <c r="AR3">
         <v>3284.66923137</v>
       </c>
-      <c r="AS3" t="n">
+      <c r="AS3">
         <v>3846.041828340003</v>
       </c>
-      <c r="AT3" t="n">
+      <c r="AT3">
         <v>3040.15682918</v>
       </c>
-      <c r="AU3" t="n">
+      <c r="AU3">
         <v>3080.436724929999</v>
       </c>
-      <c r="AV3" t="n">
+      <c r="AV3">
         <v>4988.68881466</v>
       </c>
-      <c r="AW3" t="n">
+      <c r="AW3">
         <v>3854.07825918</v>
       </c>
-      <c r="AX3" t="n">
+      <c r="AX3">
         <v>4258.72600087</v>
       </c>
-      <c r="AY3" t="n">
+      <c r="AY3">
         <v>3306.11922878</v>
       </c>
-      <c r="AZ3" t="n">
+      <c r="AZ3">
         <v>5040.506625019998</v>
       </c>
-      <c r="BA3" t="n">
+      <c r="BA3">
         <v>4426.584738340001</v>
       </c>
-      <c r="BB3" t="n">
+      <c r="BB3">
         <v>4509.56840199</v>
       </c>
-      <c r="BC3" t="n">
+      <c r="BC3">
         <v>4346.537742760001</v>
       </c>
-      <c r="BD3" t="n">
+      <c r="BD3">
         <v>4968.17657499</v>
       </c>
-      <c r="BE3" t="n">
+      <c r="BE3">
         <v>5210.914551919999</v>
       </c>
-      <c r="BF3" t="n">
+      <c r="BF3">
         <v>4400.95951706</v>
       </c>
-      <c r="BG3" t="n">
+      <c r="BG3">
         <v>5198.41209519</v>
       </c>
-      <c r="BH3" t="n">
+      <c r="BH3">
         <v>5812.973024379999</v>
       </c>
-      <c r="BI3" t="n">
+      <c r="BI3">
         <v>4878.210637550003</v>
       </c>
-      <c r="BJ3" t="n">
+      <c r="BJ3">
         <v>6085.20497255</v>
       </c>
-      <c r="BK3" t="n">
+      <c r="BK3">
         <v>4474.38400745</v>
       </c>
-      <c r="BL3" t="n">
+      <c r="BL3">
         <v>6614.362159800001</v>
       </c>
-      <c r="BM3" t="n">
+      <c r="BM3">
         <v>4915.52855851</v>
       </c>
-      <c r="BN3" t="n">
+      <c r="BN3">
         <v>5670.60393248</v>
       </c>
-      <c r="BO3" t="n">
+      <c r="BO3">
         <v>5574</v>
       </c>
-      <c r="BP3" t="n">
+      <c r="BP3">
         <v>6958</v>
       </c>
-      <c r="BQ3" t="n">
+      <c r="BQ3">
         <v>5510.107966200001</v>
       </c>
-      <c r="BR3" t="n">
+      <c r="BR3">
         <v>6688.817191249999</v>
       </c>
-      <c r="BS3" t="n">
+      <c r="BS3">
         <v>5537.646401150001</v>
       </c>
-      <c r="BT3" t="n">
+      <c r="BT3">
         <v>7422.963849469999</v>
       </c>
-      <c r="BU3" t="n">
+      <c r="BU3">
         <v>6082.481921820005</v>
       </c>
-      <c r="BV3" t="n">
+      <c r="BV3">
         <v>7091.015748819999</v>
       </c>
-      <c r="BW3" t="n">
+      <c r="BW3">
         <v>6010.22047335</v>
       </c>
-      <c r="BX3" t="n">
+      <c r="BX3">
         <v>5980.79103767</v>
       </c>
-      <c r="BY3" t="n">
+      <c r="BY3">
         <v>8077.071958769999</v>
       </c>
-      <c r="BZ3" t="n">
+      <c r="BZ3">
         <v>5907.080096119999</v>
       </c>
-      <c r="CA3" t="n">
+      <c r="CA3">
         <v>8399.82914804</v>
       </c>
-      <c r="CB3" t="n">
+      <c r="CB3">
         <v>6212.199755839997</v>
       </c>
-      <c r="CC3" t="n">
+      <c r="CC3">
         <v>9371.493</v>
       </c>
-      <c r="CD3" t="n">
+      <c r="CD3">
         <v>6009.852981479999</v>
       </c>
-      <c r="CE3" t="n">
+      <c r="CE3">
         <v>9281.608892520002</v>
       </c>
-      <c r="CF3" t="n">
+      <c r="CF3">
         <v>8557.221454329996</v>
       </c>
-      <c r="CG3" t="n">
+      <c r="CG3">
         <v>8390.507091190002</v>
       </c>
-      <c r="CH3" t="n">
+      <c r="CH3">
         <v>8493.608504089998</v>
       </c>
-      <c r="CI3" t="n">
+      <c r="CI3">
         <v>7947.381478800001</v>
       </c>
-      <c r="CJ3" t="n">
+      <c r="CJ3">
         <v>8972.51838528</v>
       </c>
-      <c r="CK3" t="n">
+      <c r="CK3">
         <v>8356.239968159996</v>
       </c>
-      <c r="CL3" t="n">
+      <c r="CL3">
         <v>9140.971608910002</v>
       </c>
-      <c r="CM3" t="n">
+      <c r="CM3">
         <v>8902.564002919997</v>
       </c>
-      <c r="CN3" t="n">
+      <c r="CN3">
         <v>9370.359462510003</v>
       </c>
-      <c r="CO3" t="n">
+      <c r="CO3">
         <v>9881.017609789997</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
+    <row r="4" spans="1:93">
+      <c r="A4" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B4">
         <v>40</v>
       </c>
-      <c r="C4" t="n">
+      <c r="C4">
         <v>179</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D4">
         <v>272</v>
       </c>
-      <c r="E4" t="n">
+      <c r="E4">
         <v>394</v>
       </c>
-      <c r="F4" t="n">
+      <c r="F4">
         <v>129</v>
       </c>
-      <c r="G4" t="n">
+      <c r="G4">
         <v>397</v>
       </c>
-      <c r="H4" t="n">
+      <c r="H4">
         <v>117</v>
       </c>
-      <c r="I4" t="n">
+      <c r="I4">
         <v>544</v>
       </c>
-      <c r="J4" t="n">
+      <c r="J4">
         <v>109</v>
       </c>
-      <c r="K4" t="n">
+      <c r="K4">
         <v>363</v>
       </c>
-      <c r="L4" t="n">
+      <c r="L4">
         <v>120</v>
       </c>
-      <c r="M4" t="n">
+      <c r="M4">
         <v>558</v>
       </c>
-      <c r="N4" t="n">
+      <c r="N4">
         <v>265</v>
       </c>
-      <c r="O4" t="n">
+      <c r="O4">
         <v>360</v>
       </c>
-      <c r="P4" t="n">
+      <c r="P4">
         <v>355</v>
       </c>
-      <c r="Q4" t="n">
+      <c r="Q4">
         <v>712</v>
       </c>
-      <c r="R4" t="n">
+      <c r="R4">
         <v>413</v>
       </c>
-      <c r="S4" t="n">
+      <c r="S4">
         <v>424</v>
       </c>
-      <c r="T4" t="n">
+      <c r="T4">
         <v>400</v>
       </c>
-      <c r="U4" t="n">
+      <c r="U4">
         <v>646</v>
       </c>
-      <c r="V4" t="n">
+      <c r="V4">
         <v>359</v>
       </c>
-      <c r="W4" t="n">
+      <c r="W4">
         <v>392</v>
       </c>
-      <c r="X4" t="n">
+      <c r="X4">
         <v>404</v>
       </c>
-      <c r="Y4" t="n">
+      <c r="Y4">
         <v>604</v>
       </c>
-      <c r="Z4" t="n">
+      <c r="Z4">
         <v>401</v>
       </c>
-      <c r="AA4" t="n">
+      <c r="AA4">
         <v>356</v>
       </c>
-      <c r="AB4" t="n">
+      <c r="AB4">
         <v>400</v>
       </c>
-      <c r="AC4" t="n">
+      <c r="AC4">
         <v>572</v>
       </c>
-      <c r="AD4" t="n">
+      <c r="AD4">
         <v>395</v>
       </c>
-      <c r="AE4" t="n">
+      <c r="AE4">
         <v>353</v>
       </c>
-      <c r="AF4" t="n">
+      <c r="AF4">
         <v>376</v>
       </c>
-      <c r="AG4" t="n">
+      <c r="AG4">
         <v>382</v>
       </c>
-      <c r="AH4" t="n">
+      <c r="AH4">
         <v>388.1</v>
       </c>
-      <c r="AI4" t="n">
+      <c r="AI4">
         <v>326.5720593199999</v>
       </c>
-      <c r="AJ4" t="n">
+      <c r="AJ4">
         <v>372.3380108300004</v>
       </c>
-      <c r="AK4" t="n">
+      <c r="AK4">
         <v>338.7835994199997</v>
       </c>
-      <c r="AL4" t="n">
+      <c r="AL4">
         <v>288.1887295</v>
       </c>
-      <c r="AM4" t="n">
+      <c r="AM4">
         <v>269.5123909500001</v>
       </c>
-      <c r="AN4" t="n">
+      <c r="AN4">
         <v>284.89514316</v>
       </c>
-      <c r="AO4" t="n">
+      <c r="AO4">
         <v>312.116442</v>
       </c>
-      <c r="AP4" t="n">
+      <c r="AP4">
         <v>299.59703603</v>
       </c>
-      <c r="AQ4" t="n">
+      <c r="AQ4">
         <v>274.35973934</v>
       </c>
-      <c r="AR4" t="n">
+      <c r="AR4">
         <v>295.93489881</v>
       </c>
-      <c r="AS4" t="n">
+      <c r="AS4">
         <v>39.25203892000002</v>
       </c>
-      <c r="AT4" t="n">
+      <c r="AT4">
         <v>256.80900634</v>
       </c>
-      <c r="AU4" t="n">
+      <c r="AU4">
         <v>30.44710249999997</v>
       </c>
-      <c r="AV4" t="n">
+      <c r="AV4">
         <v>256.79480026</v>
       </c>
-      <c r="AW4" t="n">
+      <c r="AW4">
         <v>113.6710719499999</v>
       </c>
-      <c r="AX4" t="n">
+      <c r="AX4">
         <v>234.17312203</v>
       </c>
-      <c r="AY4" t="n">
+      <c r="AY4">
         <v>102.40695634</v>
       </c>
-      <c r="AZ4" t="n">
+      <c r="AZ4">
         <v>238.2549748099999</v>
       </c>
-      <c r="BA4" t="n">
+      <c r="BA4">
         <v>109.1584188</v>
       </c>
-      <c r="BB4" t="n">
+      <c r="BB4">
         <v>149.10118838</v>
       </c>
-      <c r="BC4" t="n">
+      <c r="BC4">
         <v>103.52777055</v>
       </c>
-      <c r="BD4" t="n">
+      <c r="BD4">
         <v>148.7902729599999</v>
       </c>
-      <c r="BE4" t="n">
+      <c r="BE4">
         <v>100.7690957000001</v>
       </c>
-      <c r="BF4" t="n">
+      <c r="BF4">
         <v>138.14102814</v>
       </c>
-      <c r="BG4" t="n">
+      <c r="BG4">
         <v>100.40043496</v>
       </c>
-      <c r="BH4" t="n">
+      <c r="BH4">
         <v>140.86584324</v>
       </c>
-      <c r="BI4" t="n">
+      <c r="BI4">
         <v>105.65192631</v>
       </c>
-      <c r="BJ4" t="n">
+      <c r="BJ4">
         <v>136.98160233</v>
       </c>
-      <c r="BK4" t="n">
+      <c r="BK4">
         <v>105.84726143</v>
       </c>
-      <c r="BL4" t="n">
+      <c r="BL4">
         <v>146.17073423</v>
       </c>
-      <c r="BM4" t="n">
+      <c r="BM4">
         <v>109.7444181500001</v>
       </c>
-      <c r="BN4" t="n">
+      <c r="BN4">
         <v>146.19394331</v>
       </c>
-      <c r="BO4" t="n">
+      <c r="BO4">
         <v>115.42735259</v>
       </c>
-      <c r="BP4" t="n">
+      <c r="BP4">
         <v>161</v>
       </c>
-      <c r="BQ4" t="n">
+      <c r="BQ4">
         <v>147</v>
       </c>
-      <c r="BR4" t="n">
+      <c r="BR4">
         <v>180.76840726</v>
       </c>
-      <c r="BS4" t="n">
+      <c r="BS4">
         <v>131.71395619</v>
       </c>
-      <c r="BT4" t="n">
+      <c r="BT4">
         <v>165.74478727</v>
       </c>
-      <c r="BU4" t="n">
+      <c r="BU4">
         <v>269.38528478</v>
       </c>
-      <c r="BV4" t="n">
+      <c r="BV4">
         <v>107.62083507</v>
       </c>
-      <c r="BW4" t="n">
+      <c r="BW4">
         <v>251.73177935</v>
       </c>
-      <c r="BX4" t="n">
+      <c r="BX4">
         <v>102.71210161</v>
       </c>
-      <c r="BY4" t="n">
+      <c r="BY4">
         <v>242.04530927</v>
       </c>
-      <c r="BZ4" t="n">
+      <c r="BZ4">
         <v>96.55850296</v>
       </c>
-      <c r="CA4" t="n">
+      <c r="CA4">
         <v>223.08593735</v>
       </c>
-      <c r="CB4" t="n">
+      <c r="CB4">
         <v>97.30055968999996</v>
       </c>
-      <c r="CC4" t="n">
+      <c r="CC4">
         <v>239.4640000000001</v>
       </c>
-      <c r="CD4" t="n">
+      <c r="CD4">
         <v>96.75449128999998</v>
       </c>
-      <c r="CE4" t="n">
+      <c r="CE4">
         <v>237.03704323</v>
       </c>
-      <c r="CF4" t="n">
+      <c r="CF4">
         <v>117.93398921</v>
       </c>
-      <c r="CG4" t="n">
+      <c r="CG4">
         <v>241.76223493</v>
       </c>
-      <c r="CH4" t="n">
+      <c r="CH4">
         <v>127.28665044</v>
       </c>
-      <c r="CI4" t="n">
+      <c r="CI4">
         <v>241.52647658</v>
       </c>
-      <c r="CJ4" t="n">
+      <c r="CJ4">
         <v>127.86863996</v>
       </c>
-      <c r="CK4" t="n">
+      <c r="CK4">
         <v>228.3722576699999</v>
       </c>
-      <c r="CL4" t="n">
+      <c r="CL4">
         <v>120.65492131</v>
       </c>
-      <c r="CM4" t="n">
+      <c r="CM4">
         <v>230.31218545</v>
       </c>
-      <c r="CN4" t="n">
+      <c r="CN4">
         <v>125.04032255</v>
       </c>
-      <c r="CO4" t="n">
+      <c r="CO4">
         <v>298.1467561600001</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>